--- a/lineups.xlsx
+++ b/lineups.xlsx
@@ -14,43 +14,43 @@
   </bookViews>
   <sheets>
     <sheet name="Norwich City_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Burnley_1" r:id="rId4" sheetId="2"/>
-    <sheet name="Chelsea_1" r:id="rId5" sheetId="3"/>
-    <sheet name="Leeds United_1" r:id="rId6" sheetId="4"/>
-    <sheet name="Crystal Palace_1" r:id="rId7" sheetId="5"/>
-    <sheet name="Brentford_1" r:id="rId8" sheetId="6"/>
-    <sheet name="Manchester City_1" r:id="rId9" sheetId="7"/>
-    <sheet name="Watford_1" r:id="rId10" sheetId="8"/>
-    <sheet name="Manchester United_1" r:id="rId11" sheetId="9"/>
-    <sheet name="Brighton &amp; Holve Albion_1" r:id="rId12" sheetId="10"/>
-    <sheet name="West Ham United_1" r:id="rId13" sheetId="11"/>
-    <sheet name="Arsenal_1" r:id="rId14" sheetId="12"/>
-    <sheet name="Southampton_1" r:id="rId15" sheetId="13"/>
-    <sheet name="Everton_1" r:id="rId16" sheetId="14"/>
-    <sheet name="Wolverhampton Wanderers_1" r:id="rId17" sheetId="15"/>
-    <sheet name="Aston Villa_1" r:id="rId18" sheetId="16"/>
-    <sheet name="Newcastle United_1" r:id="rId19" sheetId="17"/>
-    <sheet name="Tottenham Hotspur_1" r:id="rId20" sheetId="18"/>
-    <sheet name="Leeds United_2" r:id="rId21" sheetId="19"/>
-    <sheet name="Leicester City_1" r:id="rId22" sheetId="20"/>
-    <sheet name="Chelsea_2" r:id="rId23" sheetId="21"/>
-    <sheet name="Brentford_2" r:id="rId24" sheetId="22"/>
-    <sheet name="Crystal Palace_2" r:id="rId25" sheetId="23"/>
-    <sheet name="Leicester City_2" r:id="rId26" sheetId="24"/>
-    <sheet name="Burnley_2" r:id="rId27" sheetId="25"/>
-    <sheet name="Norwich City_2" r:id="rId28" sheetId="26"/>
-    <sheet name="Arsenal_2" r:id="rId29" sheetId="27"/>
-    <sheet name="West Ham United_2" r:id="rId30" sheetId="28"/>
-    <sheet name="Brighton &amp; Holve Albion_2" r:id="rId31" sheetId="29"/>
-    <sheet name="Manchester United_2" r:id="rId32" sheetId="30"/>
-    <sheet name="Watford_2" r:id="rId33" sheetId="31"/>
-    <sheet name="Manchester City_2" r:id="rId34" sheetId="32"/>
-    <sheet name="Aston Villa_2" r:id="rId35" sheetId="33"/>
-    <sheet name="Everton_2" r:id="rId36" sheetId="34"/>
-    <sheet name="Newcastle United_2" r:id="rId37" sheetId="35"/>
-    <sheet name="Tottenham Hotspur_2" r:id="rId38" sheetId="36"/>
-    <sheet name="Southampton_2" r:id="rId39" sheetId="37"/>
-    <sheet name="Wolverhampton Wanderers_2" r:id="rId40" sheetId="38"/>
+    <sheet name="Burnley_1" r:id="rId5" sheetId="2"/>
+    <sheet name="Chelsea_1" r:id="rId6" sheetId="3"/>
+    <sheet name="Leeds United_1" r:id="rId7" sheetId="4"/>
+    <sheet name="Crystal Palace_1" r:id="rId8" sheetId="5"/>
+    <sheet name="Brentford_1" r:id="rId9" sheetId="6"/>
+    <sheet name="Manchester City_1" r:id="rId10" sheetId="7"/>
+    <sheet name="Watford_1" r:id="rId11" sheetId="8"/>
+    <sheet name="Manchester United_1" r:id="rId12" sheetId="9"/>
+    <sheet name="Brighton &amp; Holve Albion_1" r:id="rId13" sheetId="10"/>
+    <sheet name="West Ham United_1" r:id="rId14" sheetId="11"/>
+    <sheet name="Arsenal_1" r:id="rId15" sheetId="12"/>
+    <sheet name="Southampton_1" r:id="rId16" sheetId="13"/>
+    <sheet name="Everton_1" r:id="rId17" sheetId="14"/>
+    <sheet name="Wolverhampton Wanderers_1" r:id="rId18" sheetId="15"/>
+    <sheet name="Aston Villa_1" r:id="rId19" sheetId="16"/>
+    <sheet name="Newcastle United_1" r:id="rId20" sheetId="17"/>
+    <sheet name="Tottenham Hotspur_1" r:id="rId21" sheetId="18"/>
+    <sheet name="Leeds United_2" r:id="rId22" sheetId="19"/>
+    <sheet name="Leicester City_1" r:id="rId23" sheetId="20"/>
+    <sheet name="Chelsea_2" r:id="rId24" sheetId="21"/>
+    <sheet name="Brentford_2" r:id="rId25" sheetId="22"/>
+    <sheet name="Crystal Palace_2" r:id="rId26" sheetId="23"/>
+    <sheet name="Leicester City_2" r:id="rId27" sheetId="24"/>
+    <sheet name="Burnley_2" r:id="rId28" sheetId="25"/>
+    <sheet name="Norwich City_2" r:id="rId29" sheetId="26"/>
+    <sheet name="Arsenal_2" r:id="rId30" sheetId="27"/>
+    <sheet name="West Ham United_2" r:id="rId31" sheetId="28"/>
+    <sheet name="Brighton &amp; Holve Albion_2" r:id="rId32" sheetId="29"/>
+    <sheet name="Manchester United_2" r:id="rId33" sheetId="30"/>
+    <sheet name="Watford_2" r:id="rId34" sheetId="31"/>
+    <sheet name="Manchester City_2" r:id="rId35" sheetId="32"/>
+    <sheet name="Aston Villa_2" r:id="rId36" sheetId="33"/>
+    <sheet name="Everton_2" r:id="rId37" sheetId="34"/>
+    <sheet name="Newcastle United_2" r:id="rId38" sheetId="35"/>
+    <sheet name="Tottenham Hotspur_2" r:id="rId39" sheetId="36"/>
+    <sheet name="Southampton_2" r:id="rId40" sheetId="37"/>
+    <sheet name="Wolverhampton Wanderers_2" r:id="rId41" sheetId="38"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,6 +59,146 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>T. Minamino</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>C. Jones</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>M. Salah</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>N. Keïta</t>
+  </si>
+  <si>
+    <t>A. Oxlade-Chamberlain</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>N. Williams</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>A. Robertson</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>Alisson</t>
+  </si>
+  <si>
+    <t>gk</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>N. Phillips</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>I. Konaté</t>
+  </si>
+  <si>
+    <t>J. Matip</t>
+  </si>
+  <si>
+    <t>J. Milner</t>
+  </si>
+  <si>
+    <t>K. Tsimikas</t>
+  </si>
+  <si>
+    <t>lwb</t>
+  </si>
+  <si>
+    <t>H. Elliott</t>
+  </si>
+  <si>
+    <t>V. van Dijk</t>
+  </si>
+  <si>
+    <t>J. Henderson</t>
+  </si>
+  <si>
+    <t>cdm</t>
+  </si>
+  <si>
+    <t>T. Alexander-Arnold</t>
+  </si>
+  <si>
+    <t>Fabinho</t>
+  </si>
+  <si>
+    <t>Roberto Firmino</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>Diogo Jota</t>
+  </si>
+  <si>
+    <t>J. Gomez</t>
+  </si>
+  <si>
+    <t>D. Origi</t>
+  </si>
+  <si>
+    <t>M. Boyes</t>
+  </si>
+  <si>
+    <t>lm</t>
+  </si>
+  <si>
+    <t>J. Norris</t>
+  </si>
+  <si>
+    <t>L. Karius</t>
+  </si>
+  <si>
+    <t>E. Dixon-Bonner</t>
+  </si>
+  <si>
+    <t>S. Mané</t>
+  </si>
+  <si>
+    <t>C. Kelleher</t>
+  </si>
+  <si>
+    <t>cam</t>
+  </si>
+  <si>
+    <t>T. Clayton</t>
+  </si>
+  <si>
+    <t>lf</t>
+  </si>
+  <si>
+    <t>Adrián</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,456 +548,3838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>